--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RN2WL\Desktop\卒業制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki.m\Desktop\Island\Animal Snap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F13CB-A8C1-4608-9101-CD9705B7DAA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9158" windowHeight="6090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="シート1 - DB設計" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
   <si>
     <t>DB設計</t>
   </si>
@@ -178,13 +177,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>フォローされた日時</t>
-    <rPh sb="7" eb="9">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>postID(主)</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -230,10 +222,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>commentID</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>投稿に対するコメントID</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -257,10 +245,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>投稿した画像に対するコメント</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -288,13 +272,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>いいねをした日時</t>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コメントをした日時</t>
     <rPh sb="7" eb="9">
       <t>ニチジ</t>
@@ -308,20 +285,6 @@
   <si>
     <t>Post表</t>
     <rPh sb="4" eb="5">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Comment表</t>
-    <rPh sb="7" eb="8">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Likes表</t>
-    <rPh sb="5" eb="6">
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -642,11 +605,33 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>Like表</t>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Reply表</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>replyID</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>reply</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1089,7 +1074,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1104,46 +1119,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1154,7 +1137,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1206,9 +1189,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1284,32 +1264,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2467,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2480,35 +2460,35 @@
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.35546875" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.35546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.35546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.35546875" style="1" customWidth="1"/>
-    <col min="9" max="11" width="14.640625" style="1" customWidth="1"/>
-    <col min="12" max="256" width="16.35546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" customHeight="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:11" ht="26.1" customHeight="1">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.5" customHeight="1">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2533,7 +2513,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="18.5" customHeight="1">
+    <row r="3" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2560,7 +2540,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="18.3" customHeight="1">
+    <row r="4" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2587,7 +2567,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="18.3" customHeight="1">
+    <row r="5" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2614,7 +2594,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="18.3" customHeight="1">
+    <row r="6" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9"/>
@@ -2627,12 +2607,12 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="18.3" customHeight="1">
+    <row r="7" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>4</v>
@@ -2644,16 +2624,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>10</v>
@@ -2662,12 +2642,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.3" customHeight="1">
+    <row r="8" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>4</v>
@@ -2697,12 +2677,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.3" customHeight="1">
+    <row r="9" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>4</v>
@@ -2728,7 +2708,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="18.3" customHeight="1">
+    <row r="10" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -2755,569 +2735,534 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="13.92578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.2109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="48.2109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.35546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="6.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A1" s="19" t="s">
+    <row r="2" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B2" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B8" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B10" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.899999999999999" customHeight="1">
+      <c r="B12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B13" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="16" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B16" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="2:8" ht="12.75" thickTop="1">
+      <c r="B17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B22" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16.899999999999999" customHeight="1" thickTop="1"/>
+    <row r="24" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H25" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="25" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="2:8" ht="24">
+      <c r="B27" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C27" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="2:8" ht="24">
+      <c r="B28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26" t="s">
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B32" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="14.65" customHeight="1">
+      <c r="B34" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B35" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.4" customHeight="1" thickBot="1">
+      <c r="B36" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A7" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A9" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.4" thickTop="1">
-      <c r="A10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="F36" s="28"/>
+      <c r="G36" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A12" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.4" thickTop="1"/>
-    <row r="16" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A16" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.4" thickTop="1">
-      <c r="A17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A21" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A22" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.899999999999999" customHeight="1" thickTop="1"/>
-    <row r="24" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A24" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="24">
-      <c r="A27" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="24">
-      <c r="A28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A30" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="12.4" thickTop="1">
-      <c r="A33" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A34" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="40"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.4" customHeight="1">
-      <c r="A36" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="40"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.4" thickBot="1">
-      <c r="A37" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.4" thickTop="1"/>
+      <c r="H36" s="45"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB設計.xlsx
+++ b/DB設計.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>DB設計</t>
   </si>
@@ -1276,20 +1276,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2474,19 +2474,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.1" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="2"/>
@@ -2738,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2921,13 +2921,13 @@
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="28" t="s">
         <v>82</v>
       </c>
@@ -2995,9 +2995,7 @@
       <c r="C19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="25" t="s">
         <v>81</v>
       </c>
@@ -3045,10 +3043,12 @@
       <c r="B22" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="44" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="41" t="s">
         <v>43</v>
       </c>
@@ -3110,14 +3110,14 @@
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="2:8" ht="24">
+    <row r="27" spans="2:8" ht="24.75" thickBot="1">
       <c r="B27" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="25" t="s">
         <v>79</v>
       </c>
@@ -3127,14 +3127,14 @@
       </c>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="2:8" ht="24">
-      <c r="B28" s="48" t="s">
+    <row r="28" spans="2:8" ht="24.75" thickBot="1">
+      <c r="B28" s="47" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="25" t="s">
         <v>80</v>
       </c>
@@ -3168,13 +3168,15 @@
       <c r="C30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="44" t="s">
+        <v>57</v>
+      </c>
       <c r="E30" s="28" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="48" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3247,13 +3249,13 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="2:8" ht="15.4" customHeight="1" thickBot="1">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="28"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="28" t="s">
         <v>78</v>
       </c>
